--- a/資料/設計/スケジュール/スケジュール表v0.241.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.241.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7FEF4-71A1-4239-9C0B-0A6C2BA3D774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B28E2-E5CD-483E-BCC4-E8F02CCDEC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
@@ -1631,7 +1631,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2797,7 +2797,9 @@
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="15">
+        <v>1</v>
+      </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
